--- a/src/Stolons/wwwroot/bills/Stolons/2016_18.xlsx
+++ b/src/Stolons/wwwroot/bills/Stolons/2016_18.xlsx
@@ -38,6 +38,9 @@
     <t>Téléphone</t>
   </si>
   <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
     <t>NOM</t>
   </si>
   <si>
@@ -51,9 +54,6 @@
   </si>
   <si>
     <t>PRIX TOTAL</t>
-  </si>
-  <si>
-    <t>La ferme de Robert</t>
   </si>
   <si>
     <t>Pain complet</t>
@@ -113,7 +113,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="13"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -160,7 +160,9 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf fontId="0" applyFont="1" xfId="0"/>
-    <xf fontId="1" applyFont="1" xfId="0"/>
+    <xf fontId="1" applyFont="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="2" applyFont="1" xfId="0"/>
     <xf fontId="0" applyFont="1" xfId="0">
       <alignment horizontal="center"/>
@@ -293,13 +295,15 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="10">
-        <f ref="D6:E7" t="shared" si="1">F17</f>
-      </c>
-      <c r="E6" s="10">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10">
+        <f ref="F6:F7" t="shared" si="1">F17</f>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -311,13 +315,15 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
       </c>
-      <c r="E7" s="10">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="F7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -332,63 +338,39 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
@@ -404,7 +386,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="9">
         <f>D12*E12</f>
@@ -424,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" s="9">
         <f>D13*E13</f>
@@ -444,7 +426,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F14" s="9">
         <f>D14*E14</f>
@@ -464,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15" s="9">
         <f>D15*E15</f>
@@ -484,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="9">
         <f>D16*E16</f>
@@ -502,7 +484,7 @@
   <mergeCells>
     <mergeCell ref="A1:C8"/>
     <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:F11"/>
     <mergeCell ref="A12:B12"/>
